--- a/trunk/code/CPS_Solution/CPS_Solution/App_Data/uploads/Laptop111.xlsx
+++ b/trunk/code/CPS_Solution/CPS_Solution/App_Data/uploads/Laptop111.xlsx
@@ -699,16 +699,16 @@
     <t>GE70 2PE 096 XVN</t>
   </si>
   <si>
-    <t>GE70 2PE 096 XVN1</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>http://www.thegioididong.com/</t>
+    <t>FUJITSU LH 531</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J3" sqref="J3:J52"/>
     </sheetView>
   </sheetViews>
@@ -1121,10 +1121,10 @@
         <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1132,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -1153,7 +1153,7 @@
         <v>13</v>
       </c>
       <c r="I3">
-        <v>11111</v>
+        <v>27999000</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>230</v>
@@ -1185,7 +1185,7 @@
         <v>16</v>
       </c>
       <c r="I4">
-        <v>11111</v>
+        <v>10699000</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>230</v>
@@ -1217,7 +1217,7 @@
         <v>20</v>
       </c>
       <c r="I5">
-        <v>11111</v>
+        <v>12599000</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>230</v>
@@ -1249,7 +1249,7 @@
         <v>31</v>
       </c>
       <c r="I6">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>230</v>
@@ -1281,7 +1281,7 @@
         <v>220</v>
       </c>
       <c r="I7">
-        <v>11111</v>
+        <v>15899000</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>230</v>
@@ -1313,7 +1313,7 @@
         <v>39</v>
       </c>
       <c r="I8">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>230</v>
@@ -1345,7 +1345,7 @@
         <v>221</v>
       </c>
       <c r="I9">
-        <v>11111</v>
+        <v>10790000</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>230</v>
@@ -1377,7 +1377,7 @@
         <v>20</v>
       </c>
       <c r="I10">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>230</v>
@@ -1409,7 +1409,7 @@
         <v>54</v>
       </c>
       <c r="I11">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>230</v>
@@ -1441,7 +1441,7 @@
         <v>39</v>
       </c>
       <c r="I12">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>230</v>
@@ -1473,7 +1473,7 @@
         <v>16</v>
       </c>
       <c r="I13">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>230</v>
@@ -1505,7 +1505,7 @@
         <v>147</v>
       </c>
       <c r="I14">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>230</v>
@@ -1537,7 +1537,7 @@
         <v>71</v>
       </c>
       <c r="I15">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>230</v>
@@ -1569,7 +1569,7 @@
         <v>71</v>
       </c>
       <c r="I16">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>230</v>
@@ -1601,7 +1601,7 @@
         <v>71</v>
       </c>
       <c r="I17">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>230</v>
@@ -1633,7 +1633,7 @@
         <v>39</v>
       </c>
       <c r="I18">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>230</v>
@@ -1665,7 +1665,7 @@
         <v>39</v>
       </c>
       <c r="I19">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>230</v>
@@ -1697,7 +1697,7 @@
         <v>39</v>
       </c>
       <c r="I20">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>230</v>
@@ -1729,7 +1729,7 @@
         <v>39</v>
       </c>
       <c r="I21">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>230</v>
@@ -1761,7 +1761,7 @@
         <v>94</v>
       </c>
       <c r="I22">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>230</v>
@@ -1793,7 +1793,7 @@
         <v>94</v>
       </c>
       <c r="I23">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>230</v>
@@ -1825,7 +1825,7 @@
         <v>16</v>
       </c>
       <c r="I24">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>230</v>
@@ -1857,7 +1857,7 @@
         <v>94</v>
       </c>
       <c r="I25">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>230</v>
@@ -1889,7 +1889,7 @@
         <v>16</v>
       </c>
       <c r="I26">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>230</v>
@@ -1921,7 +1921,7 @@
         <v>16</v>
       </c>
       <c r="I27">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>230</v>
@@ -1953,7 +1953,7 @@
         <v>16</v>
       </c>
       <c r="I28">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>230</v>
@@ -1985,7 +1985,7 @@
         <v>16</v>
       </c>
       <c r="I29">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>230</v>
@@ -2017,7 +2017,7 @@
         <v>16</v>
       </c>
       <c r="I30">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>230</v>
@@ -2049,7 +2049,7 @@
         <v>129</v>
       </c>
       <c r="I31">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>230</v>
@@ -2081,7 +2081,7 @@
         <v>129</v>
       </c>
       <c r="I32">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>230</v>
@@ -2113,7 +2113,7 @@
         <v>129</v>
       </c>
       <c r="I33">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>230</v>
@@ -2145,7 +2145,7 @@
         <v>129</v>
       </c>
       <c r="I34">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>230</v>
@@ -2177,7 +2177,7 @@
         <v>129</v>
       </c>
       <c r="I35">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>230</v>
@@ -2209,7 +2209,7 @@
         <v>129</v>
       </c>
       <c r="I36">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>230</v>
@@ -2241,7 +2241,7 @@
         <v>129</v>
       </c>
       <c r="I37">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>230</v>
@@ -2273,7 +2273,7 @@
         <v>147</v>
       </c>
       <c r="I38">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>230</v>
@@ -2305,7 +2305,7 @@
         <v>147</v>
       </c>
       <c r="I39">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>230</v>
@@ -2337,7 +2337,7 @@
         <v>147</v>
       </c>
       <c r="I40">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>230</v>
@@ -2369,7 +2369,7 @@
         <v>172</v>
       </c>
       <c r="I41">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>230</v>
@@ -2401,7 +2401,7 @@
         <v>147</v>
       </c>
       <c r="I42">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>230</v>
@@ -2433,7 +2433,7 @@
         <v>54</v>
       </c>
       <c r="I43">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>230</v>
@@ -2465,7 +2465,7 @@
         <v>54</v>
       </c>
       <c r="I44">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>230</v>
@@ -2497,7 +2497,7 @@
         <v>39</v>
       </c>
       <c r="I45">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>230</v>
@@ -2529,7 +2529,7 @@
         <v>172</v>
       </c>
       <c r="I46">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>230</v>
@@ -2561,7 +2561,7 @@
         <v>20</v>
       </c>
       <c r="I47">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>230</v>
@@ -2593,7 +2593,7 @@
         <v>192</v>
       </c>
       <c r="I48">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>230</v>
@@ -2625,7 +2625,7 @@
         <v>196</v>
       </c>
       <c r="I49">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>230</v>
@@ -2657,7 +2657,7 @@
         <v>201</v>
       </c>
       <c r="I50">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>230</v>
@@ -2689,7 +2689,7 @@
         <v>39</v>
       </c>
       <c r="I51">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>230</v>
@@ -2721,7 +2721,7 @@
         <v>54</v>
       </c>
       <c r="I52">
-        <v>11111</v>
+        <v>14490000</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>230</v>
@@ -2735,7 +2735,7 @@
     <hyperlink ref="C9" r:id="rId4"/>
     <hyperlink ref="C12" r:id="rId5"/>
     <hyperlink ref="J3" r:id="rId6"/>
-    <hyperlink ref="J4:J52" r:id="rId7" display="http://www.thegioididong.com/"/>
+    <hyperlink ref="J4:J52" r:id="rId7" display="http://laptopno1.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>

--- a/trunk/code/CPS_Solution/CPS_Solution/App_Data/uploads/Laptop111.xlsx
+++ b/trunk/code/CPS_Solution/CPS_Solution/App_Data/uploads/Laptop111.xlsx
@@ -60,9 +60,6 @@
     <t>8 GB DDR3</t>
   </si>
   <si>
-    <t>Qosmio X70</t>
-  </si>
-  <si>
     <t>Intel Core i7-4700MQ</t>
   </si>
   <si>
@@ -709,6 +706,9 @@
   </si>
   <si>
     <t>http://laptopno1.com/</t>
+  </si>
+  <si>
+    <t>Toshiba Qosmio X70</t>
   </si>
 </sst>
 </file>
@@ -1067,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,10 +1121,10 @@
         <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1132,22 +1132,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
@@ -1156,7 +1156,7 @@
         <v>27999000</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1164,31 +1164,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="I4">
         <v>10699000</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1196,31 +1196,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5">
         <v>12599000</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1228,31 +1228,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="I6">
         <v>14490000</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1260,31 +1260,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I7">
         <v>15899000</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1292,31 +1292,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="I8">
         <v>14490000</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1324,31 +1324,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I9">
         <v>10790000</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1356,31 +1356,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="I10">
         <v>14490000</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1388,31 +1388,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="I11">
         <v>14490000</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1420,31 +1420,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12">
         <v>14490000</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1452,31 +1452,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13">
         <v>14490000</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1484,31 +1484,31 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I14">
         <v>14490000</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1516,31 +1516,31 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="I15">
         <v>14490000</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1548,31 +1548,31 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I16">
         <v>14490000</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1580,31 +1580,31 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="G17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="I17">
         <v>14490000</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1612,31 +1612,31 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I18">
         <v>14490000</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1644,31 +1644,31 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19">
         <v>14490000</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1676,31 +1676,31 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I20">
         <v>14490000</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1708,31 +1708,31 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I21">
         <v>14490000</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1740,31 +1740,31 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="I22">
         <v>14490000</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1772,31 +1772,31 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I23">
         <v>14490000</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1804,31 +1804,31 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I24">
         <v>14490000</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1836,31 +1836,31 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I25">
         <v>14490000</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1868,31 +1868,31 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I26">
         <v>14490000</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1900,31 +1900,31 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I27">
         <v>14490000</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1932,31 +1932,31 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28">
         <v>14490000</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1964,31 +1964,31 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I29">
         <v>14490000</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1996,31 +1996,31 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I30">
         <v>14490000</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2028,31 +2028,31 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="H31" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I31">
         <v>14490000</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2060,31 +2060,31 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="I32">
         <v>14490000</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2092,31 +2092,31 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I33">
         <v>14490000</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2124,31 +2124,31 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="H34" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I34">
         <v>14490000</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2156,31 +2156,31 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I35">
         <v>14490000</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2188,31 +2188,31 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="H36" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I36">
         <v>14490000</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2220,31 +2220,31 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I37">
         <v>14490000</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2252,31 +2252,31 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="I38">
         <v>14490000</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2284,31 +2284,31 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I39">
         <v>14490000</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2316,31 +2316,31 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I40">
         <v>14490000</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2348,31 +2348,31 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="I41">
         <v>14490000</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2380,31 +2380,31 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I42">
         <v>14490000</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2412,31 +2412,31 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I43">
         <v>14490000</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2444,31 +2444,31 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="G44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="I44">
         <v>14490000</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2476,31 +2476,31 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="D45" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I45">
         <v>14490000</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2508,31 +2508,31 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="F46" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I46">
         <v>14490000</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2540,31 +2540,31 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I47">
         <v>14490000</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2572,31 +2572,31 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="I48">
         <v>14490000</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2604,31 +2604,31 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="I49">
         <v>14490000</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2636,31 +2636,31 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="I50">
         <v>14490000</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2668,31 +2668,31 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="F51" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I51">
         <v>14490000</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2700,31 +2700,31 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="E52" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="I52">
         <v>14490000</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
